--- a/Plots/Pancreas_02_CM.xlsx
+++ b/Plots/Pancreas_02_CM.xlsx
@@ -183,7 +183,7 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01015228426395939</v>
+        <v>0.015228426395939087</v>
       </c>
       <c r="J3" t="n">
         <v>0.0</v>
@@ -325,7 +325,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002257336343115124</v>
+        <v>0.001128668171557562</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9746192893401016</v>
+        <v>0.9695431472081218</v>
       </c>
       <c r="J9" t="n">
         <v>0.0</v>
@@ -389,7 +389,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>0.001128668171557562</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9785553047404063</v>
+        <v>0.9830699774266366</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -511,7 +511,7 @@
         <v>0.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I3" t="n">
         <v>0.0</v>
@@ -578,7 +578,7 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.015228426395939087</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="J5" t="n">
         <v>0.0</v>
@@ -706,7 +706,7 @@
         <v>0.0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.949238578680203</v>
+        <v>0.9543147208121827</v>
       </c>
       <c r="J9" t="n">
         <v>0.0</v>
@@ -720,7 +720,7 @@
         <v>0.021621621621621623</v>
       </c>
       <c r="C10" t="n">
-        <v>0.019187358916478554</v>
+        <v>0.014672686230248307</v>
       </c>
       <c r="D10" t="n">
         <v>0.011111111111111112</v>
@@ -735,7 +735,7 @@
         <v>0.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.14285714285714285</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
         <v>0.03553299492385787</v>
